--- a/file/index/2_r.xlsx
+++ b/file/index/2_r.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\workSpace\regionalEnergyResearch\regionalEnergyResearch\file\index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalEnergyResearch\file\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971CAC31-07F6-4130-A688-99BE415F0A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A6C86-4F51-4D1B-9529-D5DC33A63CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="32" r:id="rId1"/>
@@ -555,15 +555,15 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="78.5" customWidth="1"/>
+    <col min="3" max="3" width="78.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2</v>
       </c>
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -697,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -737,7 +737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3</v>
       </c>
@@ -745,7 +745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>3</v>
       </c>
@@ -753,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -769,7 +769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>4</v>
       </c>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>4</v>
       </c>
@@ -809,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>4</v>
       </c>
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>4</v>
       </c>
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>4</v>
       </c>
@@ -841,7 +841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>4</v>
       </c>
@@ -849,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>4</v>
       </c>
@@ -857,7 +857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>4</v>
       </c>
@@ -865,7 +865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>4</v>
       </c>
@@ -873,7 +873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>4</v>
       </c>
@@ -889,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>4</v>
       </c>
@@ -897,7 +897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5</v>
       </c>
@@ -905,7 +905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>6</v>
       </c>
@@ -913,7 +913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>7</v>
       </c>
@@ -937,7 +937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>7</v>
       </c>
@@ -953,19 +953,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z1:Z47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1042,22 +1042,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1134,22 +1137,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1226,22 +1232,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1318,22 +1327,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1410,22 +1422,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1502,22 +1517,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -1594,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -1608,8 +1626,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1700,8 +1721,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -1778,22 +1802,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -1870,22 +1897,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -1962,22 +1992,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -2068,8 +2101,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2146,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -2158,10 +2194,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -2252,8 +2291,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -2344,8 +2386,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -2434,10 +2479,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -2528,8 +2576,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -2606,22 +2657,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -2712,8 +2766,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2804,8 +2861,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -2882,22 +2942,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -2974,22 +3037,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -3072,16 +3138,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3170,10 +3239,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3262,10 +3334,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3356,8 +3431,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -3434,22 +3512,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -3526,22 +3607,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3618,22 +3702,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -3710,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -3722,10 +3809,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -3802,13 +3892,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -3816,8 +3906,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -3894,22 +3987,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -3986,10 +4082,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -4000,8 +4096,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -4078,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -4092,8 +4191,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4170,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -4182,10 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4276,8 +4381,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -4368,8 +4476,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4460,8 +4571,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -4538,22 +4652,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -4630,22 +4747,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4736,8 +4856,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -4814,22 +4937,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -4906,22 +5032,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -4998,22 +5127,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -5090,22 +5222,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -5182,22 +5317,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -5274,38 +5412,42 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -5382,22 +5524,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5474,22 +5619,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -5566,22 +5714,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -5658,22 +5809,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -5750,22 +5904,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -5842,22 +5999,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -5934,11 +6094,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -5948,8 +6108,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -6040,8 +6203,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -6118,22 +6284,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -6210,22 +6379,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -6302,22 +6474,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -6408,8 +6583,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -6486,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -6498,10 +6676,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -6592,8 +6773,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -6684,8 +6868,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -6774,10 +6961,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -6868,8 +7058,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -6946,22 +7139,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -7052,8 +7248,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -7144,8 +7343,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -7222,22 +7424,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -7314,22 +7519,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -7412,16 +7620,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -7510,10 +7721,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -7602,10 +7816,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -7696,8 +7913,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -7774,22 +7994,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -7866,22 +8089,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -7958,22 +8184,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -8050,10 +8279,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -8062,10 +8291,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -8142,13 +8374,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -8156,8 +8388,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -8234,22 +8469,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -8326,10 +8564,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -8340,8 +8578,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -8418,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -8432,8 +8673,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -8510,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -8522,10 +8766,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -8616,8 +8863,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -8708,8 +8958,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -8800,8 +9053,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -8878,22 +9134,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -8970,22 +9229,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -9076,8 +9338,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -9154,22 +9419,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -9246,22 +9514,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -9338,22 +9609,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -9430,22 +9704,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -9522,22 +9799,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -9614,18 +9894,21 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
@@ -9637,15 +9920,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -9722,22 +10005,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9814,22 +10100,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -9906,22 +10195,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -9998,22 +10290,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -10090,22 +10385,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -10182,22 +10480,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -10274,11 +10575,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -10288,8 +10589,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -10380,8 +10684,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -10458,22 +10765,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -10550,22 +10860,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -10642,22 +10955,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -10748,8 +11064,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -10826,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -10838,10 +11157,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -10932,8 +11254,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -11024,8 +11349,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -11114,10 +11442,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -11208,8 +11539,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -11286,22 +11620,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -11392,8 +11729,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -11484,8 +11824,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -11562,22 +11905,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -11654,22 +12000,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -11752,16 +12101,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -11850,10 +12202,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -11942,10 +12297,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -12036,8 +12394,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -12114,22 +12475,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -12206,22 +12570,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -12298,22 +12665,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -12390,10 +12760,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -12402,10 +12772,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -12482,13 +12855,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -12496,8 +12869,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -12574,22 +12950,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -12666,10 +13045,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -12680,8 +13059,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -12758,10 +13140,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -12772,8 +13154,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -12850,10 +13235,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -12862,10 +13247,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -12956,8 +13344,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -13048,8 +13439,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -13140,8 +13534,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -13218,22 +13615,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -13310,22 +13710,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -13416,8 +13819,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -13494,22 +13900,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -13586,22 +13995,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -13678,22 +14090,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -13770,22 +14185,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -13862,22 +14280,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -13954,18 +14375,21 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
@@ -13977,15 +14401,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -14062,22 +14486,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14154,22 +14581,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -14246,22 +14676,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -14338,22 +14771,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -14430,22 +14866,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -14522,22 +14961,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -14614,11 +15056,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -14628,8 +15070,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -14720,8 +15165,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -14798,22 +15246,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -14890,22 +15341,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -14982,22 +15436,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -15088,8 +15545,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -15166,10 +15626,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -15178,10 +15638,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -15272,8 +15735,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -15364,8 +15830,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -15454,10 +15923,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -15548,8 +16020,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -15626,22 +16101,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -15732,8 +16210,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -15824,8 +16305,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -15902,22 +16386,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -15994,22 +16481,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -16092,16 +16582,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -16190,10 +16683,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -16282,10 +16778,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -16376,8 +16875,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -16454,22 +16956,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -16546,22 +17051,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -16638,22 +17146,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -16730,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -16742,10 +17253,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -16822,13 +17336,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -16836,8 +17350,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -16914,22 +17431,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -17006,10 +17526,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -17020,8 +17540,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -17098,10 +17621,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -17112,8 +17635,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -17190,10 +17716,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -17202,10 +17728,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -17296,8 +17825,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -17388,8 +17920,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -17480,8 +18015,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -17558,22 +18096,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -17650,22 +18191,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -17756,8 +18300,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -17834,22 +18381,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -17926,22 +18476,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -18018,22 +18571,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -18110,22 +18666,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -18202,22 +18761,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -18294,18 +18856,21 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
@@ -18317,15 +18882,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -18402,22 +18967,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18494,22 +19062,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -18586,22 +19157,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -18678,22 +19252,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -18770,22 +19347,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -18862,22 +19442,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -18954,11 +19537,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -18968,8 +19551,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -19060,8 +19646,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -19138,22 +19727,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -19230,22 +19822,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -19322,22 +19917,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -19428,8 +20026,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -19506,10 +20107,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -19518,10 +20119,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -19612,8 +20216,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -19704,8 +20311,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -19794,10 +20404,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -19888,8 +20501,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -19966,22 +20582,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -20072,8 +20691,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -20164,8 +20786,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -20242,22 +20867,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -20334,22 +20962,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -20432,16 +21063,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -20530,10 +21164,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -20622,10 +21259,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -20716,8 +21356,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -20794,22 +21437,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -20886,22 +21532,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -20978,22 +21627,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -21070,10 +21722,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -21082,10 +21734,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -21162,13 +21817,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -21176,8 +21831,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -21254,22 +21912,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -21346,10 +22007,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -21360,8 +22021,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -21438,10 +22102,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -21452,8 +22116,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -21530,10 +22197,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -21542,10 +22209,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -21636,8 +22306,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -21728,8 +22401,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -21820,8 +22496,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -21898,22 +22577,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -21990,22 +22672,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -22096,8 +22781,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -22174,22 +22862,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -22266,22 +22957,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -22358,22 +23052,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -22450,22 +23147,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -22542,22 +23242,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -22634,18 +23337,21 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
@@ -22657,15 +23363,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -22742,22 +23448,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
         <v>2</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2.1</v>
       </c>
-      <c r="AB1" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD1" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22834,22 +23543,25 @@
         <v>13</v>
       </c>
       <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
         <v>12.4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="1">
         <v>5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -22926,22 +23638,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
         <v>6</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AB3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AC3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
       <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
         <v>14.8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -23018,22 +23733,25 @@
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0.1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC4" s="1">
         <v>0</v>
       </c>
       <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -23110,22 +23828,25 @@
         <v>0.3</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0.1</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
       <c r="AD5" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -23202,22 +23923,25 @@
         <v>0.6</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0.1</v>
       </c>
       <c r="AB6" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -23294,11 +24018,11 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
       <c r="AB7" s="1">
         <v>0</v>
       </c>
@@ -23308,8 +24032,11 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -23400,8 +24127,11 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -23478,22 +24208,25 @@
         <v>0.3</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0.2</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.1</v>
       </c>
@@ -23570,22 +24303,25 @@
         <v>0.1</v>
       </c>
       <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA10" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AE10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.2</v>
       </c>
@@ -23662,22 +24398,25 @@
         <v>0.2</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -23768,8 +24507,11 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -23846,10 +24588,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -23858,10 +24600,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1</v>
       </c>
@@ -23952,8 +24697,11 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -24044,8 +24792,11 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -24134,10 +24885,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -24228,8 +24982,11 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>0.1</v>
       </c>
@@ -24306,22 +25063,25 @@
         <v>0.4</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0.1</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0.1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0.1</v>
       </c>
@@ -24412,8 +25172,11 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -24504,8 +25267,11 @@
       <c r="AD20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.8</v>
       </c>
@@ -24582,22 +25348,25 @@
         <v>6</v>
       </c>
       <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
         <v>21.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AB21" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AB21" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AC21" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AD21" s="1">
         <v>5</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0.5</v>
       </c>
@@ -24674,22 +25443,25 @@
         <v>5.3</v>
       </c>
       <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>0.6</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1</v>
       </c>
@@ -24772,16 +25544,19 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -24870,10 +25645,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -24962,10 +25740,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -25056,8 +25837,11 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3.7</v>
       </c>
@@ -25134,22 +25918,25 @@
         <v>29.4</v>
       </c>
       <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <v>25.1</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AB27" s="1">
         <v>13.9</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>7.1</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AD27" s="1">
         <v>5.5</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>16.7</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0.5</v>
       </c>
@@ -25226,22 +26013,25 @@
         <v>39.6</v>
       </c>
       <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
         <v>20.9</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AB28" s="1">
         <v>22.3</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AC28" s="1">
         <v>5.8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AD28" s="1">
         <v>10.4</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>27.7</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -25318,22 +26108,25 @@
         <v>3.3</v>
       </c>
       <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
         <v>2.8</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AB29" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AC29" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD29" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE29" s="1">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0.1</v>
       </c>
@@ -25410,10 +26203,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -25422,10 +26215,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0.1</v>
       </c>
@@ -25502,13 +26298,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="1">
         <v>0.9</v>
       </c>
-      <c r="AA31" s="1">
-        <v>0.1</v>
-      </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" s="1">
         <v>0</v>
@@ -25516,8 +26312,11 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0.1</v>
       </c>
@@ -25594,22 +26393,25 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" s="1">
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.3</v>
       </c>
@@ -25686,10 +26488,10 @@
         <v>0.2</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -25700,8 +26502,11 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.1</v>
       </c>
@@ -25778,10 +26583,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB34" s="1">
         <v>0</v>
@@ -25792,8 +26597,11 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -25870,10 +26678,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -25882,10 +26690,13 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -25976,8 +26787,11 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>0.1</v>
       </c>
@@ -26068,8 +26882,11 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -26160,8 +26977,11 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36.5</v>
       </c>
@@ -26238,22 +27058,25 @@
         <v>70.400000000000006</v>
       </c>
       <c r="Z39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1">
         <v>118.2</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AB39" s="1">
         <v>82.4</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AC39" s="1">
         <v>12.4</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AD39" s="1">
         <v>100</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AE39" s="1">
         <v>130.6</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>0.1</v>
       </c>
@@ -26330,22 +27153,25 @@
         <v>0.4</v>
       </c>
       <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
         <v>0.4</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
       <c r="AB40" s="1">
         <v>0</v>
       </c>
       <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -26436,8 +27262,11 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1.4</v>
       </c>
@@ -26514,22 +27343,25 @@
         <v>2.4</v>
       </c>
       <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>1.2</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AC42" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AD42" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD42" s="1">
+      <c r="AE42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>19.399999999999999</v>
       </c>
@@ -26606,22 +27438,25 @@
         <v>19.7</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>18.7</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>7.3</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AC43" s="1">
         <v>2.4</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AD43" s="1">
         <v>3.3</v>
       </c>
-      <c r="AD43" s="1">
+      <c r="AE43" s="1">
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3.2</v>
       </c>
@@ -26698,22 +27533,25 @@
         <v>3.1</v>
       </c>
       <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>0.9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AC44" s="1">
         <v>0.8</v>
       </c>
-      <c r="AC44" s="1">
-        <v>0.3</v>
-      </c>
       <c r="AD44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AE44" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>10.1</v>
       </c>
@@ -26790,22 +27628,25 @@
         <v>1.7</v>
       </c>
       <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AC45" s="1">
         <v>1.7</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AD45" s="1">
         <v>1</v>
       </c>
-      <c r="AD45" s="1">
+      <c r="AE45" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>11.1</v>
       </c>
@@ -26882,22 +27723,25 @@
         <v>2.8</v>
       </c>
       <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AB46" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AC46" s="1">
         <v>1.3</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AD46" s="1">
         <v>0.7</v>
       </c>
-      <c r="AD46" s="1">
+      <c r="AE46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3.6</v>
       </c>
@@ -26974,18 +27818,21 @@
         <v>6.5</v>
       </c>
       <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
         <v>5.6</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AB47" s="1">
         <v>6</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AC47" s="1">
         <v>1.5</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AD47" s="1">
         <v>0.9</v>
       </c>
-      <c r="AD47" s="1">
+      <c r="AE47" s="1">
         <v>3</v>
       </c>
     </row>
